--- a/Ablock6and7.xlsx
+++ b/Ablock6and7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="1200" windowWidth="24400" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
   <si>
     <t>trialtype</t>
   </si>
@@ -54,74 +54,83 @@
     <t>feedbackAllowed</t>
   </si>
   <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>Funeral</t>
-  </si>
-  <si>
-    <t>Lifeless</t>
-  </si>
-  <si>
-    <t>Deceased</t>
-  </si>
-  <si>
-    <t>Alive</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Thrive</t>
-  </si>
-  <si>
-    <t>Survive</t>
-  </si>
-  <si>
-    <t>Breathing</t>
-  </si>
-  <si>
-    <t>Myself</t>
-  </si>
-  <si>
-    <t>My</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Them</t>
-  </si>
-  <si>
-    <t>They</t>
-  </si>
-  <si>
-    <t>Theirs</t>
-  </si>
-  <si>
-    <t>Their</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Suicide</t>
-  </si>
-  <si>
     <t>stimulus</t>
+  </si>
+  <si>
+    <t>imageStimulus</t>
+  </si>
+  <si>
+    <t>blank.png</t>
+  </si>
+  <si>
+    <t>flower1.jpg</t>
+  </si>
+  <si>
+    <t>flower2.jpg</t>
+  </si>
+  <si>
+    <t>flower3.jpg</t>
+  </si>
+  <si>
+    <t>flower4.jpg</t>
+  </si>
+  <si>
+    <t>flower5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Attractive</t>
+  </si>
+  <si>
+    <t>Enjoy</t>
+  </si>
+  <si>
+    <t>Favorable</t>
+  </si>
+  <si>
+    <t>Likeable</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Despise</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Disgust</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>insect1.jpg</t>
+  </si>
+  <si>
+    <t>insect2.jpg</t>
+  </si>
+  <si>
+    <t>insect3.jpg</t>
+  </si>
+  <si>
+    <t>insect4.jpg</t>
+  </si>
+  <si>
+    <t>insect5.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +161,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BD3A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,15 +402,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -493,6 +555,24 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +677,24 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,500 +1024,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>2</v>
+      <c r="F17" t="s">
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>2</v>
+      <c r="F18" t="s">
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
+      <c r="F19" t="s">
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>2</v>
+      <c r="F20" t="s">
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
+      <c r="F21" t="s">
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
